--- a/excel/PEDIDOS_2026.xlsx
+++ b/excel/PEDIDOS_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIOS\ADM05\Documents\dashboard_tv\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F926CFF3-AC41-4B1C-BD7B-7AC95910344E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F31A60C-5592-4643-B8B2-D93D6810B5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{C1828F10-D84A-418A-AAF0-1B51BFAF300A}"/>
   </bookViews>
@@ -1092,11 +1092,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5695F443-BC3D-48D0-8CD1-D8C4D00277A1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AU1843"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:AU197"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E167" sqref="E167:E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1293,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1500,7 +1501,7 @@
       <c r="AE3" s="3"/>
       <c r="AK3" s="5"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1562,7 +1563,7 @@
       <c r="AE4" s="3"/>
       <c r="AK4" s="5"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1770,7 +1771,7 @@
       <c r="AE6" s="3"/>
       <c r="AK6" s="5"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1830,7 +1831,7 @@
       <c r="AE7" s="3"/>
       <c r="AK7" s="5"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2211,7 +2212,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2291,7 +2292,7 @@
       <c r="AE11" s="3"/>
       <c r="AK11" s="5"/>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -2352,7 +2353,7 @@
       <c r="AE12" s="3"/>
       <c r="AK12" s="5"/>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -2427,7 +2428,7 @@
       </c>
       <c r="AK13" s="5"/>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2486,7 +2487,7 @@
       <c r="AE14" s="3"/>
       <c r="AK14" s="5"/>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2569,7 +2570,7 @@
       <c r="AE15" s="3"/>
       <c r="AK15" s="5"/>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2630,7 +2631,7 @@
       <c r="AE16" s="3"/>
       <c r="AK16" s="5"/>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2710,7 +2711,7 @@
       <c r="AE17" s="3"/>
       <c r="AK17" s="5"/>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2770,7 +2771,7 @@
       <c r="AE18" s="3"/>
       <c r="AK18" s="5"/>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -3029,7 +3030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -3362,7 +3363,7 @@
       <c r="AE23" s="3"/>
       <c r="AK23" s="5"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -3419,7 +3420,7 @@
       </c>
       <c r="X24" s="4"/>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -3885,7 +3886,7 @@
       <c r="Z28" s="3"/>
       <c r="AK28" s="5"/>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -3942,7 +3943,7 @@
       </c>
       <c r="X29" s="4"/>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -4019,7 +4020,7 @@
       <c r="AE30" s="3"/>
       <c r="AK30" s="5"/>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -4076,7 +4077,7 @@
       </c>
       <c r="X31" s="4"/>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -4588,7 +4589,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -5496,7 +5497,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -5833,7 +5834,7 @@
       <c r="AE45" s="3"/>
       <c r="AK45" s="5"/>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -5897,7 +5898,7 @@
       <c r="AE46" s="3"/>
       <c r="AK46" s="5"/>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -5976,7 +5977,7 @@
       <c r="AB47" s="3"/>
       <c r="AK47" s="5"/>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -6037,7 +6038,7 @@
       <c r="X48" s="4"/>
       <c r="AK48" s="5"/>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6117,7 +6118,7 @@
       <c r="AE49" s="3"/>
       <c r="AK49" s="5"/>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -6177,7 +6178,7 @@
       <c r="AE50" s="3"/>
       <c r="AK50" s="5"/>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -6305,7 +6306,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -6433,7 +6434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -6561,7 +6562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -6641,7 +6642,7 @@
       <c r="AE54" s="3"/>
       <c r="AK54" s="5"/>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -6701,7 +6702,7 @@
       <c r="AE55" s="3"/>
       <c r="AK55" s="5"/>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -6832,7 +6833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -6912,7 +6913,7 @@
       <c r="AE57" s="3"/>
       <c r="AK57" s="5"/>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -6973,7 +6974,7 @@
       <c r="X58" s="4"/>
       <c r="AK58" s="5"/>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -7229,7 +7230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -7306,7 +7307,7 @@
       <c r="AE61" s="3"/>
       <c r="AK61" s="5"/>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -7370,7 +7371,7 @@
       <c r="AE62" s="3"/>
       <c r="AK62" s="5"/>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -7626,7 +7627,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -8010,7 +8011,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -8218,7 +8219,7 @@
       <c r="AE69" s="3"/>
       <c r="AK69" s="5"/>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -8278,7 +8279,7 @@
       <c r="AE70" s="3"/>
       <c r="AK70" s="5"/>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -8358,7 +8359,7 @@
       <c r="AE71" s="3"/>
       <c r="AK71" s="5"/>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -8420,7 +8421,7 @@
       <c r="AB72" s="3"/>
       <c r="AK72" s="5"/>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -8501,7 +8502,7 @@
       <c r="AE73" s="3"/>
       <c r="AK73" s="5"/>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -8565,7 +8566,7 @@
       <c r="AE74" s="3"/>
       <c r="AK74" s="5"/>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -8646,7 +8647,7 @@
       <c r="AE75" s="3"/>
       <c r="AK75" s="5"/>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -8710,7 +8711,7 @@
       <c r="AE76" s="3"/>
       <c r="AK76" s="5"/>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -8790,7 +8791,7 @@
       <c r="AE77" s="3"/>
       <c r="AK77" s="5"/>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>63</v>
       </c>
@@ -8853,7 +8854,7 @@
       <c r="AE78" s="3"/>
       <c r="AK78" s="5"/>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -8931,7 +8932,7 @@
       <c r="AE79" s="3"/>
       <c r="AK79" s="5"/>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>63</v>
       </c>
@@ -8995,7 +8996,7 @@
       <c r="AE80" s="3"/>
       <c r="AK80" s="5"/>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -9073,7 +9074,7 @@
       <c r="AE81" s="3"/>
       <c r="AK81" s="5"/>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>63</v>
       </c>
@@ -9138,7 +9139,7 @@
       <c r="AE82" s="3"/>
       <c r="AK82" s="5"/>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -9266,7 +9267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>47</v>
       </c>
@@ -9475,7 +9476,7 @@
       <c r="AE85" s="3"/>
       <c r="AK85" s="5"/>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>63</v>
       </c>
@@ -9533,7 +9534,7 @@
       <c r="X86" s="4"/>
       <c r="AK86" s="5"/>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -9661,7 +9662,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -9789,7 +9790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>47</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -10000,7 +10001,7 @@
       <c r="AE90" s="3"/>
       <c r="AK90" s="5"/>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>63</v>
       </c>
@@ -10063,7 +10064,7 @@
       <c r="AE91" s="3"/>
       <c r="AK91" s="5"/>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -10144,7 +10145,7 @@
       <c r="AE92" s="3"/>
       <c r="AK92" s="5"/>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>63</v>
       </c>
@@ -10207,7 +10208,7 @@
       <c r="AE93" s="3"/>
       <c r="AK93" s="5"/>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>47</v>
       </c>
@@ -10415,7 +10416,7 @@
       <c r="AE95" s="3"/>
       <c r="AK95" s="5"/>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>63</v>
       </c>
@@ -10480,7 +10481,7 @@
       <c r="AE96" s="3"/>
       <c r="AK96" s="5"/>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -10605,7 +10606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -10730,7 +10731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -10858,7 +10859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>47</v>
       </c>
@@ -10989,7 +10990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -11120,7 +11121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -11248,7 +11249,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>47</v>
       </c>
@@ -11329,7 +11330,7 @@
       <c r="AE103" s="3"/>
       <c r="AK103" s="5"/>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>63</v>
       </c>
@@ -11391,7 +11392,7 @@
       <c r="AE104" s="3"/>
       <c r="AK104" s="5"/>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -11516,7 +11517,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -11641,7 +11642,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -11721,7 +11722,7 @@
       <c r="AE107" s="3"/>
       <c r="AK107" s="5"/>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>63</v>
       </c>
@@ -11781,7 +11782,7 @@
       <c r="AE108" s="3"/>
       <c r="AK108" s="5"/>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -11909,7 +11910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -12037,7 +12038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>47</v>
       </c>
@@ -12168,7 +12169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>47</v>
       </c>
@@ -12250,7 +12251,7 @@
       <c r="AE112" s="3"/>
       <c r="AK112" s="5"/>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>63</v>
       </c>
@@ -12314,7 +12315,7 @@
       <c r="AE113" s="3"/>
       <c r="AK113" s="5"/>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -12391,7 +12392,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -12449,7 +12450,7 @@
       <c r="X115" s="4"/>
       <c r="AK115" s="5"/>
     </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>96</v>
       </c>
@@ -12580,7 +12581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -12660,7 +12661,7 @@
       <c r="AE117" s="3"/>
       <c r="AK117" s="5"/>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>63</v>
       </c>
@@ -12724,7 +12725,7 @@
       <c r="AE118" s="3"/>
       <c r="AK118" s="5"/>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>96</v>
       </c>
@@ -12805,7 +12806,7 @@
       <c r="AE119" s="3"/>
       <c r="AK119" s="5"/>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>63</v>
       </c>
@@ -12869,7 +12870,7 @@
       <c r="AE120" s="3"/>
       <c r="AK120" s="5"/>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>47</v>
       </c>
@@ -12950,7 +12951,7 @@
       <c r="AE121" s="3"/>
       <c r="AK121" s="5"/>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>63</v>
       </c>
@@ -13011,7 +13012,7 @@
       <c r="AE122" s="3"/>
       <c r="AK122" s="5"/>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>47</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>96</v>
       </c>
@@ -13270,7 +13271,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>96</v>
       </c>
@@ -13350,7 +13351,7 @@
       <c r="AE125" s="3"/>
       <c r="AK125" s="5"/>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>63</v>
       </c>
@@ -13410,7 +13411,7 @@
       <c r="AE126" s="3"/>
       <c r="AK126" s="5"/>
     </row>
-    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>47</v>
       </c>
@@ -13490,7 +13491,7 @@
       <c r="AE127" s="3"/>
       <c r="AK127" s="5"/>
     </row>
-    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>63</v>
       </c>
@@ -13551,7 +13552,7 @@
       <c r="AE128" s="3"/>
       <c r="AK128" s="5"/>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -13679,7 +13680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>47</v>
       </c>
@@ -13756,7 +13757,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>63</v>
       </c>
@@ -13812,7 +13813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>81</v>
       </c>
@@ -13889,7 +13890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>63</v>
       </c>
@@ -13945,7 +13946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>47</v>
       </c>
@@ -14023,7 +14024,7 @@
       </c>
       <c r="AK134" s="5"/>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>63</v>
       </c>
@@ -14086,7 +14087,7 @@
       <c r="AE135" s="3"/>
       <c r="AK135" s="5"/>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>47</v>
       </c>
@@ -14214,7 +14215,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>47</v>
       </c>
@@ -14339,7 +14340,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>47</v>
       </c>
@@ -14467,7 +14468,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>81</v>
       </c>
@@ -14545,7 +14546,7 @@
       <c r="AE139" s="3"/>
       <c r="AK139" s="5"/>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>63</v>
       </c>
@@ -15072,7 +15073,7 @@
       <c r="AE144" s="3"/>
       <c r="AK144" s="5"/>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>63</v>
       </c>
@@ -15213,7 +15214,7 @@
       <c r="AE146" s="3"/>
       <c r="AK146" s="5"/>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>63</v>
       </c>
@@ -15353,7 +15354,7 @@
       <c r="AE148" s="3"/>
       <c r="AK148" s="5"/>
     </row>
-    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>63</v>
       </c>
@@ -15494,7 +15495,7 @@
       <c r="AE150" s="3"/>
       <c r="AK150" s="5"/>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>63</v>
       </c>
@@ -15761,7 +15762,7 @@
       <c r="AE153" s="3"/>
       <c r="AK153" s="5"/>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>63</v>
       </c>
@@ -15901,7 +15902,7 @@
       <c r="AE155" s="3"/>
       <c r="AK155" s="5"/>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>63</v>
       </c>
@@ -16937,7 +16938,7 @@
       <c r="AE164" s="3"/>
       <c r="AK164" s="5"/>
     </row>
-    <row r="165" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>63</v>
       </c>
@@ -17467,7 +17468,7 @@
       <c r="AE169" s="3"/>
       <c r="AK169" s="5"/>
     </row>
-    <row r="170" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>63</v>
       </c>
@@ -17606,7 +17607,7 @@
       <c r="AB171" s="3"/>
       <c r="AK171" s="5"/>
     </row>
-    <row r="172" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>63</v>
       </c>
@@ -17742,7 +17743,7 @@
       <c r="AB173" s="3"/>
       <c r="AK173" s="5"/>
     </row>
-    <row r="174" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>63</v>
       </c>
@@ -17882,7 +17883,7 @@
       <c r="AB175" s="3"/>
       <c r="AK175" s="5"/>
     </row>
-    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>63</v>
       </c>
@@ -18016,7 +18017,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="178" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>63</v>
       </c>
@@ -19178,7 +19179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="188" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>63</v>
       </c>
@@ -19697,7 +19698,7 @@
       <c r="AE192" s="3"/>
       <c r="AK192" s="5"/>
     </row>
-    <row r="193" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>63</v>
       </c>
@@ -39283,7 +39284,13 @@
       <c r="H1843" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AU197" xr:uid="{5695F443-BC3D-48D0-8CD1-D8C4D00277A1}"/>
+  <autoFilter ref="A1:AU197" xr:uid="{5695F443-BC3D-48D0-8CD1-D8C4D00277A1}">
+    <filterColumn colId="4">
+      <filters>
+        <dateGroupItem year="2026" month="2" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="B1:B1823 B1825:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -39297,7 +39304,7 @@
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -39322,7 +39329,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUBTOTAL(9,Planilha1!K1:K1825)</f>
-        <v>1676393.95</v>
+        <v>370322.74999999988</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -39337,7 +39344,7 @@
       </c>
       <c r="B4" s="9">
         <f>SUBTOTAL(9,Planilha1!L1:L1820)</f>
-        <v>277307.88</v>
+        <v>67750.310000000012</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -39352,7 +39359,7 @@
       </c>
       <c r="B5" s="12">
         <f>SUBTOTAL(9,Planilha1!M1:M1821)</f>
-        <v>2570261.6015046285</v>
+        <v>28196.620000000006</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -39367,7 +39374,7 @@
       </c>
       <c r="B6" s="10">
         <f>SUBTOTAL(3,Planilha1!D2:D1821)</f>
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>214</v>
@@ -39382,7 +39389,7 @@
       </c>
       <c r="B7" s="13">
         <f>B3/B6</f>
-        <v>8553.0303571428576</v>
+        <v>8612.1569767441833</v>
       </c>
       <c r="D7" t="s">
         <v>217</v>
@@ -39397,7 +39404,7 @@
       </c>
       <c r="B8" s="13">
         <f>B3/B4</f>
-        <v>6.0452445491271289</v>
+        <v>5.4659934397348122</v>
       </c>
       <c r="D8" t="s">
         <v>216</v>
@@ -39412,7 +39419,7 @@
       </c>
       <c r="B9" s="13">
         <f>B3/B5</f>
-        <v>0.65222697526922579</v>
+        <v>13.133586578816887</v>
       </c>
       <c r="D9" t="s">
         <v>215</v>

--- a/excel/PEDIDOS_2026.xlsx
+++ b/excel/PEDIDOS_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIOS\ADM05\Documents\dashboard_tv\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F31A60C-5592-4643-B8B2-D93D6810B5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A55957-D80A-4340-ADB4-A40F4AAA6F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{C1828F10-D84A-418A-AAF0-1B51BFAF300A}"/>
   </bookViews>
@@ -1097,7 +1097,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E167" sqref="E167:E197"/>
+      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/excel/PEDIDOS_2026.xlsx
+++ b/excel/PEDIDOS_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIOS\ADM05\Documents\dashboard_tv\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A55957-D80A-4340-ADB4-A40F4AAA6F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA4043-6CA2-4C5C-8826-49C040B42CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{C1828F10-D84A-418A-AAF0-1B51BFAF300A}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$AU$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$AU$205</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="226">
   <si>
     <t>Empresa/Filial</t>
   </si>
@@ -693,6 +693,21 @@
   <si>
     <t>MS COSMETICOS</t>
   </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>BRASILPEX</t>
+  </si>
+  <si>
+    <t>ITAPEMA</t>
+  </si>
+  <si>
+    <t>LUMINATTI</t>
+  </si>
+  <si>
+    <t>ELTON</t>
+  </si>
 </sst>
 </file>
 
@@ -1092,21 +1107,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5695F443-BC3D-48D0-8CD1-D8C4D00277A1}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AU1843"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N160" sqref="N160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.125" customWidth="1"/>
     <col min="7" max="7" width="25.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
@@ -1293,7 +1307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1421,7 +1435,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1501,7 +1515,7 @@
       <c r="AE3" s="3"/>
       <c r="AK3" s="5"/>
     </row>
-    <row r="4" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1563,7 +1577,7 @@
       <c r="AE4" s="3"/>
       <c r="AK4" s="5"/>
     </row>
-    <row r="5" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1691,7 +1705,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1771,7 +1785,7 @@
       <c r="AE6" s="3"/>
       <c r="AK6" s="5"/>
     </row>
-    <row r="7" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -1831,7 +1845,7 @@
       <c r="AE7" s="3"/>
       <c r="AK7" s="5"/>
     </row>
-    <row r="8" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1956,7 +1970,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2084,7 +2098,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2212,7 +2226,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2292,7 +2306,7 @@
       <c r="AE11" s="3"/>
       <c r="AK11" s="5"/>
     </row>
-    <row r="12" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -2353,7 +2367,7 @@
       <c r="AE12" s="3"/>
       <c r="AK12" s="5"/>
     </row>
-    <row r="13" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -2428,7 +2442,7 @@
       </c>
       <c r="AK13" s="5"/>
     </row>
-    <row r="14" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2487,7 +2501,7 @@
       <c r="AE14" s="3"/>
       <c r="AK14" s="5"/>
     </row>
-    <row r="15" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -2570,7 +2584,7 @@
       <c r="AE15" s="3"/>
       <c r="AK15" s="5"/>
     </row>
-    <row r="16" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2631,7 +2645,7 @@
       <c r="AE16" s="3"/>
       <c r="AK16" s="5"/>
     </row>
-    <row r="17" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2711,7 +2725,7 @@
       <c r="AE17" s="3"/>
       <c r="AK17" s="5"/>
     </row>
-    <row r="18" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2771,7 +2785,7 @@
       <c r="AE18" s="3"/>
       <c r="AK18" s="5"/>
     </row>
-    <row r="19" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -2899,7 +2913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -3030,7 +3044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -3158,7 +3172,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -3286,7 +3300,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -3363,7 +3377,7 @@
       <c r="AE23" s="3"/>
       <c r="AK23" s="5"/>
     </row>
-    <row r="24" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -3420,7 +3434,7 @@
       </c>
       <c r="X24" s="4"/>
     </row>
-    <row r="25" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -3548,7 +3562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -3676,7 +3690,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -3807,7 +3821,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -3886,7 +3900,7 @@
       <c r="Z28" s="3"/>
       <c r="AK28" s="5"/>
     </row>
-    <row r="29" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -3943,7 +3957,7 @@
       </c>
       <c r="X29" s="4"/>
     </row>
-    <row r="30" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>81</v>
       </c>
@@ -4020,7 +4034,7 @@
       <c r="AE30" s="3"/>
       <c r="AK30" s="5"/>
     </row>
-    <row r="31" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -4077,7 +4091,7 @@
       </c>
       <c r="X31" s="4"/>
     </row>
-    <row r="32" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -4202,7 +4216,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -4327,7 +4341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -4458,7 +4472,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -4589,7 +4603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
@@ -4720,7 +4734,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -4851,7 +4865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -4982,7 +4996,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -5113,7 +5127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -5241,7 +5255,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -5369,7 +5383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -5497,7 +5511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -5625,7 +5639,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -5753,7 +5767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -5834,7 +5848,7 @@
       <c r="AE45" s="3"/>
       <c r="AK45" s="5"/>
     </row>
-    <row r="46" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -5898,7 +5912,7 @@
       <c r="AE46" s="3"/>
       <c r="AK46" s="5"/>
     </row>
-    <row r="47" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -5977,7 +5991,7 @@
       <c r="AB47" s="3"/>
       <c r="AK47" s="5"/>
     </row>
-    <row r="48" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -6038,7 +6052,7 @@
       <c r="X48" s="4"/>
       <c r="AK48" s="5"/>
     </row>
-    <row r="49" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6118,7 +6132,7 @@
       <c r="AE49" s="3"/>
       <c r="AK49" s="5"/>
     </row>
-    <row r="50" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -6178,7 +6192,7 @@
       <c r="AE50" s="3"/>
       <c r="AK50" s="5"/>
     </row>
-    <row r="51" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -6306,7 +6320,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -6434,7 +6448,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -6562,7 +6576,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -6642,7 +6656,7 @@
       <c r="AE54" s="3"/>
       <c r="AK54" s="5"/>
     </row>
-    <row r="55" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -6702,7 +6716,7 @@
       <c r="AE55" s="3"/>
       <c r="AK55" s="5"/>
     </row>
-    <row r="56" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -6833,7 +6847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -6913,7 +6927,7 @@
       <c r="AE57" s="3"/>
       <c r="AK57" s="5"/>
     </row>
-    <row r="58" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -6974,7 +6988,7 @@
       <c r="X58" s="4"/>
       <c r="AK58" s="5"/>
     </row>
-    <row r="59" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -7102,7 +7116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -7230,7 +7244,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -7307,7 +7321,7 @@
       <c r="AE61" s="3"/>
       <c r="AK61" s="5"/>
     </row>
-    <row r="62" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -7371,7 +7385,7 @@
       <c r="AE62" s="3"/>
       <c r="AK62" s="5"/>
     </row>
-    <row r="63" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -7499,7 +7513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -7627,7 +7641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -7755,7 +7769,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -7883,7 +7897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -8011,7 +8025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -8139,7 +8153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -8219,7 +8233,7 @@
       <c r="AE69" s="3"/>
       <c r="AK69" s="5"/>
     </row>
-    <row r="70" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -8279,7 +8293,7 @@
       <c r="AE70" s="3"/>
       <c r="AK70" s="5"/>
     </row>
-    <row r="71" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -8359,7 +8373,7 @@
       <c r="AE71" s="3"/>
       <c r="AK71" s="5"/>
     </row>
-    <row r="72" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -8421,7 +8435,7 @@
       <c r="AB72" s="3"/>
       <c r="AK72" s="5"/>
     </row>
-    <row r="73" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>47</v>
       </c>
@@ -8502,7 +8516,7 @@
       <c r="AE73" s="3"/>
       <c r="AK73" s="5"/>
     </row>
-    <row r="74" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>63</v>
       </c>
@@ -8566,7 +8580,7 @@
       <c r="AE74" s="3"/>
       <c r="AK74" s="5"/>
     </row>
-    <row r="75" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -8647,7 +8661,7 @@
       <c r="AE75" s="3"/>
       <c r="AK75" s="5"/>
     </row>
-    <row r="76" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -8711,7 +8725,7 @@
       <c r="AE76" s="3"/>
       <c r="AK76" s="5"/>
     </row>
-    <row r="77" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -8791,7 +8805,7 @@
       <c r="AE77" s="3"/>
       <c r="AK77" s="5"/>
     </row>
-    <row r="78" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>63</v>
       </c>
@@ -8854,7 +8868,7 @@
       <c r="AE78" s="3"/>
       <c r="AK78" s="5"/>
     </row>
-    <row r="79" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -8932,7 +8946,7 @@
       <c r="AE79" s="3"/>
       <c r="AK79" s="5"/>
     </row>
-    <row r="80" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>63</v>
       </c>
@@ -8996,7 +9010,7 @@
       <c r="AE80" s="3"/>
       <c r="AK80" s="5"/>
     </row>
-    <row r="81" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -9074,7 +9088,7 @@
       <c r="AE81" s="3"/>
       <c r="AK81" s="5"/>
     </row>
-    <row r="82" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>63</v>
       </c>
@@ -9139,7 +9153,7 @@
       <c r="AE82" s="3"/>
       <c r="AK82" s="5"/>
     </row>
-    <row r="83" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -9267,7 +9281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -9395,7 +9409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>47</v>
       </c>
@@ -9476,7 +9490,7 @@
       <c r="AE85" s="3"/>
       <c r="AK85" s="5"/>
     </row>
-    <row r="86" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>63</v>
       </c>
@@ -9534,7 +9548,7 @@
       <c r="X86" s="4"/>
       <c r="AK86" s="5"/>
     </row>
-    <row r="87" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -9662,7 +9676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -9790,7 +9804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>47</v>
       </c>
@@ -9921,7 +9935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>47</v>
       </c>
@@ -10001,7 +10015,7 @@
       <c r="AE90" s="3"/>
       <c r="AK90" s="5"/>
     </row>
-    <row r="91" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>63</v>
       </c>
@@ -10064,7 +10078,7 @@
       <c r="AE91" s="3"/>
       <c r="AK91" s="5"/>
     </row>
-    <row r="92" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -10145,7 +10159,7 @@
       <c r="AE92" s="3"/>
       <c r="AK92" s="5"/>
     </row>
-    <row r="93" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>63</v>
       </c>
@@ -10208,7 +10222,7 @@
       <c r="AE93" s="3"/>
       <c r="AK93" s="5"/>
     </row>
-    <row r="94" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -10336,7 +10350,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>47</v>
       </c>
@@ -10416,7 +10430,7 @@
       <c r="AE95" s="3"/>
       <c r="AK95" s="5"/>
     </row>
-    <row r="96" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>63</v>
       </c>
@@ -10481,7 +10495,7 @@
       <c r="AE96" s="3"/>
       <c r="AK96" s="5"/>
     </row>
-    <row r="97" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>47</v>
       </c>
@@ -10606,7 +10620,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -10731,7 +10745,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -10859,7 +10873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>47</v>
       </c>
@@ -10990,7 +11004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -11121,7 +11135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>96</v>
       </c>
@@ -11249,7 +11263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>47</v>
       </c>
@@ -11330,7 +11344,7 @@
       <c r="AE103" s="3"/>
       <c r="AK103" s="5"/>
     </row>
-    <row r="104" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>63</v>
       </c>
@@ -11392,7 +11406,7 @@
       <c r="AE104" s="3"/>
       <c r="AK104" s="5"/>
     </row>
-    <row r="105" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>47</v>
       </c>
@@ -11517,7 +11531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>47</v>
       </c>
@@ -11642,7 +11656,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>47</v>
       </c>
@@ -11722,7 +11736,7 @@
       <c r="AE107" s="3"/>
       <c r="AK107" s="5"/>
     </row>
-    <row r="108" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>63</v>
       </c>
@@ -11782,7 +11796,7 @@
       <c r="AE108" s="3"/>
       <c r="AK108" s="5"/>
     </row>
-    <row r="109" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -11910,7 +11924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -12038,7 +12052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>47</v>
       </c>
@@ -12169,7 +12183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>47</v>
       </c>
@@ -12251,7 +12265,7 @@
       <c r="AE112" s="3"/>
       <c r="AK112" s="5"/>
     </row>
-    <row r="113" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>63</v>
       </c>
@@ -12315,7 +12329,7 @@
       <c r="AE113" s="3"/>
       <c r="AK113" s="5"/>
     </row>
-    <row r="114" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -12392,7 +12406,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="115" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -12450,7 +12464,7 @@
       <c r="X115" s="4"/>
       <c r="AK115" s="5"/>
     </row>
-    <row r="116" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>96</v>
       </c>
@@ -12581,7 +12595,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -12661,7 +12675,7 @@
       <c r="AE117" s="3"/>
       <c r="AK117" s="5"/>
     </row>
-    <row r="118" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>63</v>
       </c>
@@ -12725,7 +12739,7 @@
       <c r="AE118" s="3"/>
       <c r="AK118" s="5"/>
     </row>
-    <row r="119" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>96</v>
       </c>
@@ -12806,7 +12820,7 @@
       <c r="AE119" s="3"/>
       <c r="AK119" s="5"/>
     </row>
-    <row r="120" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>63</v>
       </c>
@@ -12870,7 +12884,7 @@
       <c r="AE120" s="3"/>
       <c r="AK120" s="5"/>
     </row>
-    <row r="121" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>47</v>
       </c>
@@ -12951,7 +12965,7 @@
       <c r="AE121" s="3"/>
       <c r="AK121" s="5"/>
     </row>
-    <row r="122" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>63</v>
       </c>
@@ -13012,7 +13026,7 @@
       <c r="AE122" s="3"/>
       <c r="AK122" s="5"/>
     </row>
-    <row r="123" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>47</v>
       </c>
@@ -13140,7 +13154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>96</v>
       </c>
@@ -13271,7 +13285,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>96</v>
       </c>
@@ -13351,7 +13365,7 @@
       <c r="AE125" s="3"/>
       <c r="AK125" s="5"/>
     </row>
-    <row r="126" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>63</v>
       </c>
@@ -13411,7 +13425,7 @@
       <c r="AE126" s="3"/>
       <c r="AK126" s="5"/>
     </row>
-    <row r="127" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>47</v>
       </c>
@@ -13491,7 +13505,7 @@
       <c r="AE127" s="3"/>
       <c r="AK127" s="5"/>
     </row>
-    <row r="128" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>63</v>
       </c>
@@ -13552,7 +13566,7 @@
       <c r="AE128" s="3"/>
       <c r="AK128" s="5"/>
     </row>
-    <row r="129" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -13680,7 +13694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>47</v>
       </c>
@@ -13757,7 +13771,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="131" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>63</v>
       </c>
@@ -13813,7 +13827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>81</v>
       </c>
@@ -13890,7 +13904,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="133" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>63</v>
       </c>
@@ -13946,7 +13960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>47</v>
       </c>
@@ -14024,7 +14038,7 @@
       </c>
       <c r="AK134" s="5"/>
     </row>
-    <row r="135" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>63</v>
       </c>
@@ -14087,7 +14101,7 @@
       <c r="AE135" s="3"/>
       <c r="AK135" s="5"/>
     </row>
-    <row r="136" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>47</v>
       </c>
@@ -14215,7 +14229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="137" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>47</v>
       </c>
@@ -14340,7 +14354,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>47</v>
       </c>
@@ -14468,7 +14482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>81</v>
       </c>
@@ -14546,7 +14560,7 @@
       <c r="AE139" s="3"/>
       <c r="AK139" s="5"/>
     </row>
-    <row r="140" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>63</v>
       </c>
@@ -15073,7 +15087,7 @@
       <c r="AE144" s="3"/>
       <c r="AK144" s="5"/>
     </row>
-    <row r="145" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>63</v>
       </c>
@@ -15214,7 +15228,7 @@
       <c r="AE146" s="3"/>
       <c r="AK146" s="5"/>
     </row>
-    <row r="147" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>63</v>
       </c>
@@ -15354,7 +15368,7 @@
       <c r="AE148" s="3"/>
       <c r="AK148" s="5"/>
     </row>
-    <row r="149" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>63</v>
       </c>
@@ -15495,7 +15509,7 @@
       <c r="AE150" s="3"/>
       <c r="AK150" s="5"/>
     </row>
-    <row r="151" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>63</v>
       </c>
@@ -15762,7 +15776,7 @@
       <c r="AE153" s="3"/>
       <c r="AK153" s="5"/>
     </row>
-    <row r="154" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>63</v>
       </c>
@@ -15902,7 +15916,7 @@
       <c r="AE155" s="3"/>
       <c r="AK155" s="5"/>
     </row>
-    <row r="156" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>63</v>
       </c>
@@ -16938,7 +16952,7 @@
       <c r="AE164" s="3"/>
       <c r="AK164" s="5"/>
     </row>
-    <row r="165" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>63</v>
       </c>
@@ -17468,7 +17482,7 @@
       <c r="AE169" s="3"/>
       <c r="AK169" s="5"/>
     </row>
-    <row r="170" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>63</v>
       </c>
@@ -17607,7 +17621,7 @@
       <c r="AB171" s="3"/>
       <c r="AK171" s="5"/>
     </row>
-    <row r="172" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>63</v>
       </c>
@@ -17743,7 +17757,7 @@
       <c r="AB173" s="3"/>
       <c r="AK173" s="5"/>
     </row>
-    <row r="174" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>63</v>
       </c>
@@ -17883,7 +17897,7 @@
       <c r="AB175" s="3"/>
       <c r="AK175" s="5"/>
     </row>
-    <row r="176" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>63</v>
       </c>
@@ -18017,7 +18031,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="178" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>63</v>
       </c>
@@ -19179,7 +19193,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="188" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>63</v>
       </c>
@@ -19698,7 +19712,7 @@
       <c r="AE192" s="3"/>
       <c r="AK192" s="5"/>
     </row>
-    <row r="193" spans="1:47" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>63</v>
       </c>
@@ -20160,28 +20174,28 @@
         <v>172</v>
       </c>
       <c r="H197" s="3">
-        <v>1140</v>
+        <v>2900</v>
       </c>
       <c r="I197" s="3">
-        <v>1140</v>
+        <v>2900</v>
       </c>
       <c r="J197">
         <v>0</v>
       </c>
       <c r="K197" s="3">
-        <v>1140</v>
+        <v>2900</v>
       </c>
       <c r="L197">
-        <v>260</v>
+        <v>584</v>
       </c>
       <c r="M197" s="3">
-        <v>84.5</v>
+        <v>189.8</v>
       </c>
       <c r="N197" t="s">
         <v>52</v>
       </c>
       <c r="O197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P197" t="s">
         <v>53</v>
@@ -20207,60 +20221,67 @@
       <c r="X197" s="4">
         <v>0</v>
       </c>
-      <c r="Z197">
-        <v>260</v>
-      </c>
-      <c r="AA197">
-        <v>0</v>
-      </c>
-      <c r="AB197">
-        <v>0</v>
-      </c>
-      <c r="AC197">
-        <v>0</v>
-      </c>
-      <c r="AD197">
-        <v>0</v>
-      </c>
-      <c r="AE197" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AF197" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG197" t="s">
+      <c r="Y197" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE197" s="3"/>
+      <c r="AK197" s="5"/>
+    </row>
+    <row r="198" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>63</v>
+      </c>
+      <c r="B198" s="1">
+        <v>584</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I198" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AI197" t="s">
+      <c r="K198" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AK197" s="5"/>
-      <c r="AO197" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP197">
-        <v>0</v>
-      </c>
-      <c r="AR197" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS197" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT197">
+      <c r="L198" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M198" s="3">
+        <v>46065.756863425922</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>54</v>
+      </c>
+      <c r="R198">
+        <v>0</v>
+      </c>
+      <c r="T198" t="s">
+        <v>54</v>
+      </c>
+      <c r="U198" t="s">
+        <v>54</v>
+      </c>
+      <c r="V198">
         <v>8730</v>
       </c>
-      <c r="AU197" t="s">
+      <c r="W198" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="198" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B198" s="1"/>
-      <c r="E198" s="2"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="K198" s="3"/>
-      <c r="L198" s="3"/>
       <c r="X198" s="4"/>
       <c r="Z198" s="3"/>
       <c r="AD198" s="3"/>
@@ -20268,76 +20289,538 @@
       <c r="AK198" s="5"/>
     </row>
     <row r="199" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B199" s="1"/>
-      <c r="E199" s="2"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-      <c r="K199" s="3"/>
-      <c r="L199" s="3"/>
-      <c r="X199" s="4"/>
-      <c r="Z199" s="3"/>
-      <c r="AE199" s="3"/>
-      <c r="AK199" s="5"/>
+      <c r="A199" t="s">
+        <v>47</v>
+      </c>
+      <c r="B199" s="1">
+        <v>38554</v>
+      </c>
+      <c r="C199" t="s">
+        <v>48</v>
+      </c>
+      <c r="D199" t="s">
+        <v>49</v>
+      </c>
+      <c r="E199" s="2">
+        <v>46065</v>
+      </c>
+      <c r="F199" t="s">
+        <v>126</v>
+      </c>
+      <c r="G199" t="s">
+        <v>89</v>
+      </c>
+      <c r="H199" s="3">
+        <v>6887</v>
+      </c>
+      <c r="I199" s="3">
+        <v>6887</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199" s="3">
+        <v>7920.05</v>
+      </c>
+      <c r="L199" s="3">
+        <v>763.9</v>
+      </c>
+      <c r="M199" s="3">
+        <v>487.37</v>
+      </c>
+      <c r="N199" t="s">
+        <v>84</v>
+      </c>
+      <c r="O199" t="s">
+        <v>53</v>
+      </c>
+      <c r="P199" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>53</v>
+      </c>
+      <c r="R199" t="s">
+        <v>54</v>
+      </c>
+      <c r="S199" t="s">
+        <v>54</v>
+      </c>
+      <c r="T199" t="s">
+        <v>55</v>
+      </c>
+      <c r="U199">
+        <v>9</v>
+      </c>
+      <c r="V199" t="s">
+        <v>71</v>
+      </c>
+      <c r="W199" t="s">
+        <v>95</v>
+      </c>
+      <c r="X199" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z199" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+      <c r="AB199">
+        <v>763.9</v>
+      </c>
+      <c r="AC199">
+        <v>0</v>
+      </c>
+      <c r="AD199">
+        <v>0</v>
+      </c>
+      <c r="AE199" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG199" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI199" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ199" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK199" s="5">
+        <v>46065.630474537036</v>
+      </c>
+      <c r="AO199" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP199">
+        <v>0</v>
+      </c>
+      <c r="AR199" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS199" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT199">
+        <v>3204</v>
+      </c>
+      <c r="AU199" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="200" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B200" s="1"/>
-      <c r="E200" s="2"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="K200" s="3"/>
-      <c r="L200" s="3"/>
-      <c r="X200" s="4"/>
+      <c r="A200" t="s">
+        <v>136</v>
+      </c>
+      <c r="B200" s="1">
+        <v>38555</v>
+      </c>
+      <c r="C200" t="s">
+        <v>48</v>
+      </c>
+      <c r="D200" t="s">
+        <v>49</v>
+      </c>
+      <c r="E200" s="2">
+        <v>46065</v>
+      </c>
+      <c r="F200" t="s">
+        <v>222</v>
+      </c>
+      <c r="G200" t="s">
+        <v>223</v>
+      </c>
+      <c r="H200" s="3">
+        <v>25800</v>
+      </c>
+      <c r="I200" s="3">
+        <v>25800</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200" s="3">
+        <v>25800</v>
+      </c>
+      <c r="L200" s="3">
+        <v>6175</v>
+      </c>
+      <c r="M200" s="3">
+        <v>1790.75</v>
+      </c>
+      <c r="N200" t="s">
+        <v>77</v>
+      </c>
+      <c r="O200" t="s">
+        <v>53</v>
+      </c>
+      <c r="P200" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>53</v>
+      </c>
+      <c r="R200" t="s">
+        <v>54</v>
+      </c>
+      <c r="S200" t="s">
+        <v>54</v>
+      </c>
+      <c r="T200" t="s">
+        <v>55</v>
+      </c>
+      <c r="U200">
+        <v>83</v>
+      </c>
+      <c r="W200" t="s">
+        <v>114</v>
+      </c>
+      <c r="X200" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>62</v>
+      </c>
       <c r="AB200" s="3"/>
       <c r="AK200" s="5"/>
     </row>
     <row r="201" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B201" s="1"/>
-      <c r="E201" s="2"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="K201" s="3"/>
-      <c r="L201" s="3"/>
+      <c r="A201" t="s">
+        <v>63</v>
+      </c>
+      <c r="B201" s="1">
+        <v>6175</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201" s="2">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M201" s="3">
+        <v>46065.630567129629</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>54</v>
+      </c>
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="T201" t="s">
+        <v>54</v>
+      </c>
+      <c r="U201" t="s">
+        <v>54</v>
+      </c>
+      <c r="V201">
+        <v>4212</v>
+      </c>
+      <c r="W201" t="s">
+        <v>55</v>
+      </c>
       <c r="X201" s="4"/>
       <c r="AB201" s="3"/>
       <c r="AK201" s="5"/>
     </row>
     <row r="202" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B202" s="1"/>
-      <c r="E202" s="2"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-      <c r="K202" s="3"/>
-      <c r="X202" s="4"/>
+      <c r="A202" t="s">
+        <v>96</v>
+      </c>
+      <c r="B202" s="1">
+        <v>38556</v>
+      </c>
+      <c r="C202" t="s">
+        <v>48</v>
+      </c>
+      <c r="D202" t="s">
+        <v>49</v>
+      </c>
+      <c r="E202" s="2">
+        <v>46065</v>
+      </c>
+      <c r="F202" t="s">
+        <v>224</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H202" s="3">
+        <v>18300.5</v>
+      </c>
+      <c r="I202" s="3">
+        <v>18300.5</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202" s="3">
+        <v>18300.5</v>
+      </c>
+      <c r="L202" s="3">
+        <v>4223.25</v>
+      </c>
+      <c r="M202" s="3">
+        <v>1646.07</v>
+      </c>
+      <c r="N202" t="s">
+        <v>77</v>
+      </c>
+      <c r="O202" t="s">
+        <v>53</v>
+      </c>
+      <c r="P202" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>53</v>
+      </c>
+      <c r="R202" t="s">
+        <v>54</v>
+      </c>
+      <c r="S202" t="s">
+        <v>54</v>
+      </c>
+      <c r="T202" t="s">
+        <v>55</v>
+      </c>
+      <c r="U202">
+        <v>83</v>
+      </c>
+      <c r="V202" t="s">
+        <v>225</v>
+      </c>
+      <c r="W202" t="s">
+        <v>85</v>
+      </c>
+      <c r="X202" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>62</v>
+      </c>
       <c r="AE202" s="3"/>
       <c r="AK202" s="5"/>
     </row>
     <row r="203" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B203" s="1"/>
-      <c r="E203" s="2"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="K203" s="3"/>
+      <c r="A203" t="s">
+        <v>63</v>
+      </c>
+      <c r="B203" s="1">
+        <v>2337</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" s="2">
+        <v>0</v>
+      </c>
+      <c r="F203" s="3">
+        <v>1886.25</v>
+      </c>
+      <c r="G203" s="3">
+        <v>7450</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L203" t="s">
+        <v>92</v>
+      </c>
+      <c r="M203" s="3">
+        <v>46065.630694444444</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>54</v>
+      </c>
+      <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="T203" t="s">
+        <v>54</v>
+      </c>
+      <c r="U203" t="s">
+        <v>54</v>
+      </c>
+      <c r="V203">
+        <v>4014</v>
+      </c>
+      <c r="W203" t="s">
+        <v>55</v>
+      </c>
       <c r="X203" s="4"/>
       <c r="AK203" s="5"/>
     </row>
     <row r="204" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B204" s="1"/>
-      <c r="E204" s="2"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-      <c r="K204" s="3"/>
-      <c r="X204" s="4"/>
+      <c r="A204" t="s">
+        <v>96</v>
+      </c>
+      <c r="B204" s="1">
+        <v>38557</v>
+      </c>
+      <c r="C204" t="s">
+        <v>48</v>
+      </c>
+      <c r="D204" t="s">
+        <v>49</v>
+      </c>
+      <c r="E204" s="2">
+        <v>46065</v>
+      </c>
+      <c r="F204" t="s">
+        <v>224</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H204" s="3">
+        <v>18300.5</v>
+      </c>
+      <c r="I204" s="3">
+        <v>18300.5</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204" s="3">
+        <v>18300.5</v>
+      </c>
+      <c r="L204" s="3">
+        <v>4223.25</v>
+      </c>
+      <c r="M204" s="3">
+        <v>1646.07</v>
+      </c>
+      <c r="N204" t="s">
+        <v>77</v>
+      </c>
+      <c r="O204" t="s">
+        <v>53</v>
+      </c>
+      <c r="P204" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>53</v>
+      </c>
+      <c r="R204" t="s">
+        <v>54</v>
+      </c>
+      <c r="S204" t="s">
+        <v>54</v>
+      </c>
+      <c r="T204" t="s">
+        <v>55</v>
+      </c>
+      <c r="U204">
+        <v>83</v>
+      </c>
+      <c r="V204" t="s">
+        <v>225</v>
+      </c>
+      <c r="W204" t="s">
+        <v>85</v>
+      </c>
+      <c r="X204" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>62</v>
+      </c>
       <c r="AK204" s="5"/>
     </row>
     <row r="205" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B205" s="1"/>
-      <c r="E205" s="2"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="K205" s="3"/>
-      <c r="L205" s="3"/>
+      <c r="A205" t="s">
+        <v>63</v>
+      </c>
+      <c r="B205" s="1">
+        <v>2337</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205" s="2">
+        <v>0</v>
+      </c>
+      <c r="F205" s="3">
+        <v>1886.25</v>
+      </c>
+      <c r="G205" s="3">
+        <v>7450</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M205" s="3">
+        <v>46065.630914351852</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>54</v>
+      </c>
+      <c r="R205">
+        <v>0</v>
+      </c>
+      <c r="T205" t="s">
+        <v>54</v>
+      </c>
+      <c r="U205" t="s">
+        <v>54</v>
+      </c>
+      <c r="V205">
+        <v>4014</v>
+      </c>
+      <c r="W205" t="s">
+        <v>55</v>
+      </c>
       <c r="X205" s="4"/>
       <c r="AB205" s="3"/>
       <c r="AD205" s="3"/>
@@ -39284,13 +39767,7 @@
       <c r="H1843" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AU197" xr:uid="{5695F443-BC3D-48D0-8CD1-D8C4D00277A1}">
-    <filterColumn colId="4">
-      <filters>
-        <dateGroupItem year="2026" month="2" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AU205" xr:uid="{5695F443-BC3D-48D0-8CD1-D8C4D00277A1}"/>
   <conditionalFormatting sqref="B1:B1823 B1825:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -39304,13 +39781,13 @@
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -39329,7 +39806,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUBTOTAL(9,Planilha1!K1:K1825)</f>
-        <v>370322.74999999988</v>
+        <v>1748475</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -39344,7 +39821,7 @@
       </c>
       <c r="B4" s="9">
         <f>SUBTOTAL(9,Planilha1!L1:L1820)</f>
-        <v>67750.310000000012</v>
+        <v>293017.28000000003</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -39359,7 +39836,7 @@
       </c>
       <c r="B5" s="12">
         <f>SUBTOTAL(9,Planilha1!M1:M1821)</f>
-        <v>28196.620000000006</v>
+        <v>2760199.81054398</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -39374,7 +39851,7 @@
       </c>
       <c r="B6" s="10">
         <f>SUBTOTAL(3,Planilha1!D2:D1821)</f>
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
         <v>214</v>
@@ -39389,7 +39866,7 @@
       </c>
       <c r="B7" s="13">
         <f>B3/B6</f>
-        <v>8612.1569767441833</v>
+        <v>8570.9558823529405</v>
       </c>
       <c r="D7" t="s">
         <v>217</v>
@@ -39404,7 +39881,7 @@
       </c>
       <c r="B8" s="13">
         <f>B3/B4</f>
-        <v>5.4659934397348122</v>
+        <v>5.9671395489030541</v>
       </c>
       <c r="D8" t="s">
         <v>216</v>
@@ -39419,7 +39896,7 @@
       </c>
       <c r="B9" s="13">
         <f>B3/B5</f>
-        <v>13.133586578816887</v>
+        <v>0.63345957539769948</v>
       </c>
       <c r="D9" t="s">
         <v>215</v>

--- a/excel/PEDIDOS_2026.xlsx
+++ b/excel/PEDIDOS_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIOS\ADM05\Documents\dashboard_tv\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA4043-6CA2-4C5C-8826-49C040B42CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0A9D45-05F6-4727-96BC-0A5BA5D63FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{C1828F10-D84A-418A-AAF0-1B51BFAF300A}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3515" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3615" uniqueCount="226">
   <si>
     <t>Empresa/Filial</t>
   </si>
@@ -1110,8 +1110,8 @@
   <dimension ref="A1:AU1843"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N160" sqref="N160"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:AU213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -20828,109 +20828,575 @@
       <c r="AK205" s="5"/>
     </row>
     <row r="206" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B206" s="1"/>
-      <c r="E206" s="2"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="K206" s="3"/>
-      <c r="L206" s="3"/>
-      <c r="X206" s="4"/>
+      <c r="A206" t="s">
+        <v>47</v>
+      </c>
+      <c r="B206" s="1">
+        <v>38559</v>
+      </c>
+      <c r="C206" t="s">
+        <v>48</v>
+      </c>
+      <c r="D206" t="s">
+        <v>49</v>
+      </c>
+      <c r="E206" s="2">
+        <v>46066</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H206" s="3">
+        <v>33350</v>
+      </c>
+      <c r="I206" s="3">
+        <v>33350</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206" s="3">
+        <v>38352.5</v>
+      </c>
+      <c r="L206" s="3">
+        <v>5077.5</v>
+      </c>
+      <c r="M206" s="3">
+        <v>3239.45</v>
+      </c>
+      <c r="N206" t="s">
+        <v>52</v>
+      </c>
+      <c r="O206" t="s">
+        <v>53</v>
+      </c>
+      <c r="P206" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>53</v>
+      </c>
+      <c r="R206" t="s">
+        <v>54</v>
+      </c>
+      <c r="S206" t="s">
+        <v>54</v>
+      </c>
+      <c r="T206" t="s">
+        <v>55</v>
+      </c>
+      <c r="U206">
+        <v>126</v>
+      </c>
+      <c r="V206" t="s">
+        <v>56</v>
+      </c>
+      <c r="W206" t="s">
+        <v>95</v>
+      </c>
+      <c r="X206" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="207" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B207" s="1"/>
-      <c r="E207" s="2"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="K207" s="3"/>
-      <c r="L207" s="3"/>
+      <c r="A207" t="s">
+        <v>63</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207" s="3">
+        <v>5077.5</v>
+      </c>
+      <c r="E207" s="2">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J207" t="s">
+        <v>148</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M207" s="3">
+        <v>46066.471296296295</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>54</v>
+      </c>
+      <c r="R207">
+        <v>0</v>
+      </c>
+      <c r="T207" t="s">
+        <v>54</v>
+      </c>
+      <c r="U207" t="s">
+        <v>54</v>
+      </c>
+      <c r="V207">
+        <v>8478</v>
+      </c>
+      <c r="W207" t="s">
+        <v>55</v>
+      </c>
       <c r="X207" s="4"/>
       <c r="AE207" s="3"/>
       <c r="AK207" s="5"/>
     </row>
     <row r="208" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B208" s="1"/>
-      <c r="E208" s="2"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="K208" s="3"/>
-      <c r="L208" s="3"/>
-      <c r="X208" s="4"/>
+      <c r="A208" t="s">
+        <v>47</v>
+      </c>
+      <c r="B208" s="1">
+        <v>38560</v>
+      </c>
+      <c r="C208" t="s">
+        <v>48</v>
+      </c>
+      <c r="D208" t="s">
+        <v>49</v>
+      </c>
+      <c r="E208" s="2">
+        <v>46066</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H208" s="3">
+        <v>33350</v>
+      </c>
+      <c r="I208" s="3">
+        <v>33350</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208" s="3">
+        <v>38352.5</v>
+      </c>
+      <c r="L208" s="3">
+        <v>5077.5</v>
+      </c>
+      <c r="M208" s="3">
+        <v>3239.45</v>
+      </c>
+      <c r="N208" t="s">
+        <v>52</v>
+      </c>
+      <c r="O208" t="s">
+        <v>53</v>
+      </c>
+      <c r="P208" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>53</v>
+      </c>
+      <c r="R208" t="s">
+        <v>54</v>
+      </c>
+      <c r="S208" t="s">
+        <v>54</v>
+      </c>
+      <c r="T208" t="s">
+        <v>55</v>
+      </c>
+      <c r="U208">
+        <v>126</v>
+      </c>
+      <c r="V208" t="s">
+        <v>56</v>
+      </c>
+      <c r="W208" t="s">
+        <v>95</v>
+      </c>
+      <c r="X208" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>62</v>
+      </c>
       <c r="AB208" s="3"/>
       <c r="AE208" s="3"/>
       <c r="AK208" s="5"/>
     </row>
-    <row r="209" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B209" s="1"/>
-      <c r="E209" s="2"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="K209" s="3"/>
-      <c r="L209" s="3"/>
+    <row r="209" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>63</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209" s="3">
+        <v>5077.5</v>
+      </c>
+      <c r="E209" s="2">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J209" t="s">
+        <v>148</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M209" s="3">
+        <v>46066.472291666665</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>54</v>
+      </c>
+      <c r="R209">
+        <v>0</v>
+      </c>
+      <c r="T209" t="s">
+        <v>54</v>
+      </c>
+      <c r="U209" t="s">
+        <v>54</v>
+      </c>
+      <c r="V209">
+        <v>8478</v>
+      </c>
+      <c r="W209" t="s">
+        <v>55</v>
+      </c>
       <c r="X209" s="4"/>
       <c r="Z209" s="3"/>
       <c r="AE209" s="3"/>
       <c r="AK209" s="5"/>
     </row>
-    <row r="210" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B210" s="1"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="2"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-      <c r="K210" s="3"/>
-      <c r="L210" s="3"/>
-      <c r="X210" s="4"/>
+    <row r="210" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>47</v>
+      </c>
+      <c r="B210" s="1">
+        <v>38561</v>
+      </c>
+      <c r="C210" t="s">
+        <v>48</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E210" s="2">
+        <v>46066</v>
+      </c>
+      <c r="F210" t="s">
+        <v>147</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H210" s="3">
+        <v>33350</v>
+      </c>
+      <c r="I210" s="3">
+        <v>33350</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210" s="3">
+        <v>38352.5</v>
+      </c>
+      <c r="L210" s="3">
+        <v>5077.5</v>
+      </c>
+      <c r="M210" s="3">
+        <v>3239.45</v>
+      </c>
+      <c r="N210" t="s">
+        <v>52</v>
+      </c>
+      <c r="O210" t="s">
+        <v>53</v>
+      </c>
+      <c r="P210" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>53</v>
+      </c>
+      <c r="R210" t="s">
+        <v>54</v>
+      </c>
+      <c r="S210" t="s">
+        <v>54</v>
+      </c>
+      <c r="T210" t="s">
+        <v>55</v>
+      </c>
+      <c r="U210">
+        <v>126</v>
+      </c>
+      <c r="V210" t="s">
+        <v>56</v>
+      </c>
+      <c r="W210" t="s">
+        <v>95</v>
+      </c>
+      <c r="X210" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>62</v>
+      </c>
       <c r="Z210" s="3"/>
       <c r="AB210" s="3"/>
       <c r="AE210" s="3"/>
       <c r="AK210" s="5"/>
     </row>
-    <row r="211" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B211" s="1"/>
-      <c r="E211" s="2"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="K211" s="3"/>
-      <c r="L211" s="3"/>
+    <row r="211" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>63</v>
+      </c>
+      <c r="B211" s="1">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211" s="3">
+        <v>5077.5</v>
+      </c>
+      <c r="E211" s="2">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J211" t="s">
+        <v>148</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M211" s="3">
+        <v>46066.473506944443</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>54</v>
+      </c>
+      <c r="R211">
+        <v>0</v>
+      </c>
+      <c r="T211" t="s">
+        <v>54</v>
+      </c>
+      <c r="U211" t="s">
+        <v>54</v>
+      </c>
+      <c r="V211">
+        <v>8478</v>
+      </c>
+      <c r="W211" t="s">
+        <v>55</v>
+      </c>
       <c r="X211" s="4"/>
       <c r="Z211" s="3"/>
       <c r="AE211" s="3"/>
       <c r="AK211" s="5"/>
     </row>
-    <row r="212" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B212" s="1"/>
-      <c r="E212" s="2"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="K212" s="3"/>
-      <c r="L212" s="3"/>
-      <c r="X212" s="4"/>
+    <row r="212" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>47</v>
+      </c>
+      <c r="B212" s="1">
+        <v>38562</v>
+      </c>
+      <c r="C212" t="s">
+        <v>48</v>
+      </c>
+      <c r="D212" t="s">
+        <v>49</v>
+      </c>
+      <c r="E212" s="2">
+        <v>46066</v>
+      </c>
+      <c r="F212" t="s">
+        <v>147</v>
+      </c>
+      <c r="G212" t="s">
+        <v>89</v>
+      </c>
+      <c r="H212" s="3">
+        <v>33350</v>
+      </c>
+      <c r="I212" s="3">
+        <v>33350</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212" s="3">
+        <v>38352.5</v>
+      </c>
+      <c r="L212" s="3">
+        <v>5077.5</v>
+      </c>
+      <c r="M212" s="3">
+        <v>3239.45</v>
+      </c>
+      <c r="N212" t="s">
+        <v>52</v>
+      </c>
+      <c r="O212" t="s">
+        <v>53</v>
+      </c>
+      <c r="P212" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>53</v>
+      </c>
+      <c r="R212" t="s">
+        <v>54</v>
+      </c>
+      <c r="S212" t="s">
+        <v>54</v>
+      </c>
+      <c r="T212" t="s">
+        <v>55</v>
+      </c>
+      <c r="U212">
+        <v>126</v>
+      </c>
+      <c r="V212" t="s">
+        <v>56</v>
+      </c>
+      <c r="W212" t="s">
+        <v>95</v>
+      </c>
+      <c r="X212" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>62</v>
+      </c>
       <c r="Z212" s="3"/>
       <c r="AE212" s="3"/>
       <c r="AK212" s="5"/>
     </row>
-    <row r="213" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B213" s="1"/>
-      <c r="E213" s="2"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-      <c r="K213" s="3"/>
-      <c r="L213" s="3"/>
+    <row r="213" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>63</v>
+      </c>
+      <c r="B213" s="1">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213" s="3">
+        <v>5077.5</v>
+      </c>
+      <c r="E213" s="2">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J213" t="s">
+        <v>148</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M213" s="3">
+        <v>46066.474687499998</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>54</v>
+      </c>
+      <c r="R213">
+        <v>0</v>
+      </c>
+      <c r="T213" t="s">
+        <v>54</v>
+      </c>
+      <c r="U213" t="s">
+        <v>54</v>
+      </c>
+      <c r="V213">
+        <v>8478</v>
+      </c>
+      <c r="W213" t="s">
+        <v>55</v>
+      </c>
       <c r="X213" s="4"/>
       <c r="Z213" s="3"/>
       <c r="AE213" s="3"/>
       <c r="AK213" s="5"/>
     </row>
-    <row r="214" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="E214" s="2"/>
       <c r="H214" s="3"/>
@@ -20942,7 +21408,7 @@
       <c r="AE214" s="3"/>
       <c r="AK214" s="5"/>
     </row>
-    <row r="215" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
       <c r="E215" s="2"/>
       <c r="G215" s="3"/>
@@ -20954,7 +21420,7 @@
       <c r="AE215" s="3"/>
       <c r="AK215" s="5"/>
     </row>
-    <row r="216" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="3"/>
       <c r="E216" s="2"/>
@@ -20965,7 +21431,7 @@
       <c r="L216" s="3"/>
       <c r="X216" s="4"/>
     </row>
-    <row r="217" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
       <c r="E217" s="2"/>
       <c r="G217" s="3"/>
@@ -20978,7 +21444,7 @@
       <c r="AE217" s="3"/>
       <c r="AK217" s="5"/>
     </row>
-    <row r="218" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="E218" s="2"/>
       <c r="H218" s="3"/>
@@ -20990,14 +21456,14 @@
       <c r="AE218" s="3"/>
       <c r="AK218" s="5"/>
     </row>
-    <row r="219" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="D219" s="3"/>
       <c r="E219" s="2"/>
       <c r="G219" s="3"/>
       <c r="X219" s="4"/>
     </row>
-    <row r="220" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="E220" s="2"/>
       <c r="H220" s="3"/>
@@ -21009,7 +21475,7 @@
       <c r="AE220" s="3"/>
       <c r="AK220" s="5"/>
     </row>
-    <row r="221" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="E221" s="2"/>
       <c r="F221" s="3"/>
@@ -21023,7 +21489,7 @@
       <c r="AE221" s="3"/>
       <c r="AK221" s="5"/>
     </row>
-    <row r="222" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
       <c r="E222" s="2"/>
       <c r="G222" s="3"/>
@@ -21035,7 +21501,7 @@
       <c r="AE222" s="3"/>
       <c r="AK222" s="5"/>
     </row>
-    <row r="223" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="D223" s="3"/>
       <c r="E223" s="2"/>
@@ -21045,7 +21511,7 @@
       <c r="K223" s="3"/>
       <c r="X223" s="4"/>
     </row>
-    <row r="224" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="E224" s="2"/>
       <c r="G224" s="3"/>
@@ -39806,7 +40272,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUBTOTAL(9,Planilha1!K1:K1825)</f>
-        <v>1748475</v>
+        <v>1901885</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -39821,7 +40287,7 @@
       </c>
       <c r="B4" s="9">
         <f>SUBTOTAL(9,Planilha1!L1:L1820)</f>
-        <v>293017.28000000003</v>
+        <v>313327.28000000003</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -39836,7 +40302,7 @@
       </c>
       <c r="B5" s="12">
         <f>SUBTOTAL(9,Planilha1!M1:M1821)</f>
-        <v>2760199.81054398</v>
+        <v>2957423.5023263879</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -39851,7 +40317,7 @@
       </c>
       <c r="B6" s="10">
         <f>SUBTOTAL(3,Planilha1!D2:D1821)</f>
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
         <v>214</v>
@@ -39866,7 +40332,7 @@
       </c>
       <c r="B7" s="13">
         <f>B3/B6</f>
-        <v>8570.9558823529405</v>
+        <v>8971.1556603773588</v>
       </c>
       <c r="D7" t="s">
         <v>217</v>
@@ -39881,7 +40347,7 @@
       </c>
       <c r="B8" s="13">
         <f>B3/B4</f>
-        <v>5.9671395489030541</v>
+        <v>6.0699630112003007</v>
       </c>
       <c r="D8" t="s">
         <v>216</v>
@@ -39896,7 +40362,7 @@
       </c>
       <c r="B9" s="13">
         <f>B3/B5</f>
-        <v>0.63345957539769948</v>
+        <v>0.64308848513035988</v>
       </c>
       <c r="D9" t="s">
         <v>215</v>

--- a/excel/PEDIDOS_2026.xlsx
+++ b/excel/PEDIDOS_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIOS\ADM05\Documents\dashboard_tv\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B17BF2-E0B4-4150-864E-0033DA931FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F2FF3-878D-400B-895F-DE6065885992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{C1828F10-D84A-418A-AAF0-1B51BFAF300A}"/>
   </bookViews>
@@ -1146,8 +1146,8 @@
   <dimension ref="A1:AU1843"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B191" sqref="B191"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/excel/PEDIDOS_2026.xlsx
+++ b/excel/PEDIDOS_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIOS\ADM05\Documents\dashboard_tv\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEC0DBD-57AF-44A9-86D5-1E88862E4141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C68D52-3A6E-422C-930C-EC12CF46D131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{C1828F10-D84A-418A-AAF0-1B51BFAF300A}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="245">
   <si>
     <t>Empresa/Filial</t>
   </si>
@@ -91973,7 +91973,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02CBC691-8FE5-4117-AD29-0522370051A7}" name="Tabela dinâmica1" cacheId="9" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02CBC691-8FE5-4117-AD29-0522370051A7}" name="Tabela dinâmica1" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="47">
     <pivotField showAll="0"/>
@@ -93011,8 +93011,8 @@
   <dimension ref="A1:AU1843"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F218" sqref="F218"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -115468,41 +115468,385 @@
       <c r="AK237" s="5"/>
     </row>
     <row r="238" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B238" s="1"/>
-      <c r="E238" s="2"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-      <c r="K238" s="3"/>
-      <c r="L238" s="3"/>
-      <c r="X238" s="4"/>
-      <c r="AB238" s="3"/>
-      <c r="AE238" s="3"/>
-      <c r="AK238" s="5"/>
+      <c r="A238" t="s">
+        <v>47</v>
+      </c>
+      <c r="B238" s="1">
+        <v>38583</v>
+      </c>
+      <c r="C238" t="s">
+        <v>48</v>
+      </c>
+      <c r="D238" t="s">
+        <v>49</v>
+      </c>
+      <c r="E238" s="2">
+        <v>46073</v>
+      </c>
+      <c r="F238" t="s">
+        <v>113</v>
+      </c>
+      <c r="G238" t="s">
+        <v>61</v>
+      </c>
+      <c r="H238" s="3">
+        <v>1674</v>
+      </c>
+      <c r="I238" s="3">
+        <v>1674</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238" s="3">
+        <v>1925.1</v>
+      </c>
+      <c r="L238" s="3">
+        <v>349.8</v>
+      </c>
+      <c r="M238" s="3">
+        <v>113.69</v>
+      </c>
+      <c r="N238" t="s">
+        <v>73</v>
+      </c>
+      <c r="O238" t="s">
+        <v>51</v>
+      </c>
+      <c r="P238" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>51</v>
+      </c>
+      <c r="R238" t="s">
+        <v>52</v>
+      </c>
+      <c r="S238" t="s">
+        <v>52</v>
+      </c>
+      <c r="T238" t="s">
+        <v>53</v>
+      </c>
+      <c r="U238">
+        <v>9</v>
+      </c>
+      <c r="V238" t="s">
+        <v>65</v>
+      </c>
+      <c r="W238" t="s">
+        <v>55</v>
+      </c>
+      <c r="X238" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z238">
+        <v>349.8</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+      <c r="AB238" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC238">
+        <v>0</v>
+      </c>
+      <c r="AD238">
+        <v>0</v>
+      </c>
+      <c r="AE238" s="3">
+        <v>600</v>
+      </c>
+      <c r="AF238" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG238" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI238" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ238" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK238" s="5">
+        <v>46073.384745370371</v>
+      </c>
+      <c r="AO238" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP238">
+        <v>0</v>
+      </c>
+      <c r="AR238" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS238" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT238">
+        <v>1009</v>
+      </c>
+      <c r="AU238" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="239" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B239" s="1"/>
-      <c r="E239" s="2"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
-      <c r="K239" s="3"/>
-      <c r="L239" s="3"/>
-      <c r="X239" s="4"/>
-      <c r="Z239" s="3"/>
-      <c r="AB239" s="3"/>
-      <c r="AE239" s="3"/>
-      <c r="AK239" s="5"/>
+      <c r="A239" t="s">
+        <v>47</v>
+      </c>
+      <c r="B239" s="1">
+        <v>38584</v>
+      </c>
+      <c r="C239" t="s">
+        <v>48</v>
+      </c>
+      <c r="D239" t="s">
+        <v>49</v>
+      </c>
+      <c r="E239" s="2">
+        <v>46073</v>
+      </c>
+      <c r="F239" t="s">
+        <v>164</v>
+      </c>
+      <c r="G239" t="s">
+        <v>165</v>
+      </c>
+      <c r="H239" s="3">
+        <v>28961.759999999998</v>
+      </c>
+      <c r="I239" s="3">
+        <v>28961.759999999998</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239" s="3">
+        <v>33306.019999999997</v>
+      </c>
+      <c r="L239" s="3">
+        <v>3482.64</v>
+      </c>
+      <c r="M239" s="3">
+        <v>2222.7800000000002</v>
+      </c>
+      <c r="N239" t="s">
+        <v>166</v>
+      </c>
+      <c r="O239" t="s">
+        <v>51</v>
+      </c>
+      <c r="P239" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>51</v>
+      </c>
+      <c r="R239" t="s">
+        <v>52</v>
+      </c>
+      <c r="S239" t="s">
+        <v>52</v>
+      </c>
+      <c r="T239" t="s">
+        <v>53</v>
+      </c>
+      <c r="U239">
+        <v>43</v>
+      </c>
+      <c r="W239" t="s">
+        <v>66</v>
+      </c>
+      <c r="X239" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y239" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z239" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+      <c r="AB239" s="3">
+        <v>3482.64</v>
+      </c>
+      <c r="AC239">
+        <v>0</v>
+      </c>
+      <c r="AD239">
+        <v>0</v>
+      </c>
+      <c r="AE239" s="3">
+        <v>2568</v>
+      </c>
+      <c r="AF239" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG239" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI239" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ239" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK239" s="5">
+        <v>46073.388506944444</v>
+      </c>
+      <c r="AO239" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP239">
+        <v>0</v>
+      </c>
+      <c r="AR239" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS239" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT239">
+        <v>4694</v>
+      </c>
+      <c r="AU239" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="240" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="B240" s="1"/>
-      <c r="E240" s="2"/>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
-      <c r="K240" s="3"/>
-      <c r="L240" s="3"/>
-      <c r="X240" s="4"/>
-      <c r="Z240" s="3"/>
-      <c r="AE240" s="3"/>
-      <c r="AK240" s="5"/>
+      <c r="A240" t="s">
+        <v>47</v>
+      </c>
+      <c r="B240" s="1">
+        <v>38585</v>
+      </c>
+      <c r="C240" t="s">
+        <v>48</v>
+      </c>
+      <c r="D240" t="s">
+        <v>49</v>
+      </c>
+      <c r="E240" s="2">
+        <v>46073</v>
+      </c>
+      <c r="F240" t="s">
+        <v>84</v>
+      </c>
+      <c r="G240" t="s">
+        <v>80</v>
+      </c>
+      <c r="H240" s="3">
+        <v>1432</v>
+      </c>
+      <c r="I240" s="3">
+        <v>1432</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240" s="3">
+        <v>1646.8</v>
+      </c>
+      <c r="L240" s="3">
+        <v>327.2</v>
+      </c>
+      <c r="M240" s="3">
+        <v>94.89</v>
+      </c>
+      <c r="N240" t="s">
+        <v>73</v>
+      </c>
+      <c r="O240" t="s">
+        <v>51</v>
+      </c>
+      <c r="P240" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>51</v>
+      </c>
+      <c r="R240" t="s">
+        <v>52</v>
+      </c>
+      <c r="S240" t="s">
+        <v>52</v>
+      </c>
+      <c r="T240" t="s">
+        <v>53</v>
+      </c>
+      <c r="U240">
+        <v>9</v>
+      </c>
+      <c r="V240" t="s">
+        <v>65</v>
+      </c>
+      <c r="W240" t="s">
+        <v>85</v>
+      </c>
+      <c r="X240" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z240" s="3">
+        <v>327.2</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+      <c r="AB240">
+        <v>0</v>
+      </c>
+      <c r="AC240">
+        <v>0</v>
+      </c>
+      <c r="AD240">
+        <v>0</v>
+      </c>
+      <c r="AE240" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF240" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG240" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH240" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI240" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ240" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK240" s="5">
+        <v>46073.583680555559</v>
+      </c>
+      <c r="AO240" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP240">
+        <v>0</v>
+      </c>
+      <c r="AR240" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS240" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT240">
+        <v>161</v>
+      </c>
+      <c r="AU240" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="241" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
@@ -134065,7 +134409,7 @@
       </c>
       <c r="B3" s="11">
         <f>SUBTOTAL(9,Planilha1!K1:K1825)</f>
-        <v>2004102.3699999999</v>
+        <v>2040980.29</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -134080,7 +134424,7 @@
       </c>
       <c r="B4" s="9">
         <f>SUBTOTAL(9,Planilha1!L1:L1820)</f>
-        <v>333355.47000000009</v>
+        <v>337515.1100000001</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -134095,7 +134439,7 @@
       </c>
       <c r="B5" s="12">
         <f>SUBTOTAL(9,Planilha1!M1:M1821)</f>
-        <v>3334026.8056944436</v>
+        <v>3336458.1656944435</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -134110,7 +134454,7 @@
       </c>
       <c r="B6" s="10">
         <f>SUBTOTAL(3,Planilha1!D2:D1821)</f>
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
         <v>146</v>
@@ -134125,7 +134469,7 @@
       </c>
       <c r="B7" s="13">
         <f>B3/B6</f>
-        <v>8491.9591949152546</v>
+        <v>8539.6664853556485</v>
       </c>
       <c r="D7" t="s">
         <v>149</v>
@@ -134140,7 +134484,7 @@
       </c>
       <c r="B8" s="13">
         <f>B3/B4</f>
-        <v>6.0119078591990682</v>
+        <v>6.0470782774732648</v>
       </c>
       <c r="D8" t="s">
         <v>148</v>
@@ -134155,7 +134499,7 @@
       </c>
       <c r="B9" s="13">
         <f>B3/B5</f>
-        <v>0.60110565595244692</v>
+        <v>0.61172062967413066</v>
       </c>
       <c r="D9" t="s">
         <v>147</v>
